--- a/InterviewTest/output/230143/230143_failed.xlsx
+++ b/InterviewTest/output/230143/230143_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230143\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD297D50-9266-44FB-89C1-DA86190B6939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF9CE9-08C7-4101-BCB8-A56476B8746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230143/230143_failed.xlsx
+++ b/InterviewTest/output/230143/230143_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230143\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230143\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF9CE9-08C7-4101-BCB8-A56476B8746F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B30257-D1E3-4701-A8D6-E8E09C712D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t xml:space="preserve">Field </t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Nguyễn Khả Hân</t>
+  </si>
+  <si>
+    <t>30/06/2009</t>
   </si>
   <si>
     <t>null</t>
@@ -160,15 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,8 +538,8 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>39994</v>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -547,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -555,7 +555,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -571,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -579,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -595,7 +595,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -611,7 +611,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -619,7 +619,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -633,7 +633,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" customHeight="1" thickBot="1">
@@ -641,7 +641,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/InterviewTest/output/230143/230143_failed.xlsx
+++ b/InterviewTest/output/230143/230143_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230143\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230143\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B30257-D1E3-4701-A8D6-E8E09C712D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E04326-31F8-482D-AE32-AF339E2004F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
